--- a/QA/Tests/FTP/CRUD/Create/AllSteps/_Test_Suite_Statistics.xlsx
+++ b/QA/Tests/FTP/CRUD/Create/AllSteps/_Test_Suite_Statistics.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
   <si>
     <t>Title</t>
   </si>
@@ -65,7 +65,7 @@
     <t>NextAndBackFunctionality</t>
   </si>
   <si>
-    <t>?</t>
+    <t>Suited to Manual</t>
   </si>
 </sst>
 </file>
@@ -160,74 +160,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="16">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill>
-          <stop position="0">
-            <color rgb="FF00B0F0"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FF00B050"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <gradientFill degree="180">
-          <stop position="0">
-            <color rgb="FF66FF66"/>
-          </stop>
-          <stop position="1">
-            <color rgb="FF00B050"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FF66FF66"/>
-          <bgColor rgb="FF66FF66"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF66FF66"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="8">
     <dxf>
       <fill>
         <patternFill>
@@ -606,7 +539,7 @@
   <dimension ref="A1:I175"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -643,14 +576,14 @@
       </c>
       <c r="G1" s="6">
         <f>COUNTIF($D:$D,"Ready to Write")+COUNTIF($D:$D,"Outdated")+COUNTIF($D:$D,"Testing")</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>3</v>
       </c>
       <c r="I1" s="3">
         <f>SUM(G1:G2)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -658,10 +591,10 @@
         <v>11</v>
       </c>
       <c r="B2" s="1">
-        <v>0</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>14</v>
+        <v>4</v>
+      </c>
+      <c r="C2" s="1">
+        <v>8</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>10</v>
@@ -681,11 +614,11 @@
       <c r="B3" s="1">
         <v>0</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="1">
+        <v>6</v>
+      </c>
+      <c r="D3" s="5" t="s">
         <v>14</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>10</v>
       </c>
       <c r="F3" s="3"/>
       <c r="G3" s="6"/>
@@ -697,8 +630,8 @@
       <c r="B4" s="1">
         <v>0</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>14</v>
+      <c r="C4" s="1">
+        <v>4</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>10</v>
@@ -708,7 +641,7 @@
       </c>
       <c r="G4" s="3">
         <f>SUM($C:$C)</f>
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -717,16 +650,16 @@
       </c>
       <c r="G5" s="3">
         <f>SUM($B:$B)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G6" s="8" t="e">
+      <c r="G6" s="8">
         <f>G5/G4</f>
-        <v>#DIV/0!</v>
+        <v>0.22222222222222221</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -745,30 +678,30 @@
     <sortCondition ref="A2"/>
   </sortState>
   <conditionalFormatting sqref="D6:D49 D2:D4">
-    <cfRule type="notContainsBlanks" dxfId="15" priority="9" stopIfTrue="1">
+    <cfRule type="notContainsBlanks" dxfId="7" priority="9" stopIfTrue="1">
       <formula>LEN(TRIM(D2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6:D1048576 D1:D4">
-    <cfRule type="containsText" dxfId="14" priority="1" stopIfTrue="1" operator="containsText" text="Finished">
+    <cfRule type="containsText" dxfId="6" priority="1" stopIfTrue="1" operator="containsText" text="Finished">
       <formula>NOT(ISERROR(SEARCH("Finished",D1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="13" priority="2" stopIfTrue="1" operator="containsText" text="Automated">
+    <cfRule type="containsText" dxfId="5" priority="2" stopIfTrue="1" operator="containsText" text="Automated">
       <formula>NOT(ISERROR(SEARCH("Automated",D1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="12" priority="3" stopIfTrue="1" operator="containsText" text="Under Review">
+    <cfRule type="containsText" dxfId="4" priority="3" stopIfTrue="1" operator="containsText" text="Under Review">
       <formula>NOT(ISERROR(SEARCH("Under Review",D1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="11" priority="4" stopIfTrue="1" operator="containsText" text="Testing">
+    <cfRule type="containsText" dxfId="3" priority="4" stopIfTrue="1" operator="containsText" text="Testing">
       <formula>NOT(ISERROR(SEARCH("Testing",D1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="5" stopIfTrue="1" operator="containsText" text="Writing">
+    <cfRule type="containsText" dxfId="2" priority="5" stopIfTrue="1" operator="containsText" text="Writing">
       <formula>NOT(ISERROR(SEARCH("Writing",D1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="9" priority="6" stopIfTrue="1" operator="containsText" text="Ready to Write">
+    <cfRule type="containsText" dxfId="1" priority="6" stopIfTrue="1" operator="containsText" text="Ready to Write">
       <formula>NOT(ISERROR(SEARCH("Ready to Write",D1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="8" priority="7" stopIfTrue="1" operator="containsText" text="Unwritten Keywords">
+    <cfRule type="containsText" dxfId="0" priority="7" stopIfTrue="1" operator="containsText" text="Unwritten Keywords">
       <formula>NOT(ISERROR(SEARCH("Unwritten Keywords",D1)))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/QA/Tests/FTP/CRUD/Create/AllSteps/_Test_Suite_Statistics.xlsx
+++ b/QA/Tests/FTP/CRUD/Create/AllSteps/_Test_Suite_Statistics.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Title</t>
   </si>
@@ -66,6 +66,9 @@
   </si>
   <si>
     <t>Suited to Manual</t>
+  </si>
+  <si>
+    <t>Automated</t>
   </si>
 </sst>
 </file>
@@ -539,7 +542,7 @@
   <dimension ref="A1:I175"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -576,7 +579,7 @@
       </c>
       <c r="G1" s="6">
         <f>COUNTIF($D:$D,"Ready to Write")+COUNTIF($D:$D,"Outdated")+COUNTIF($D:$D,"Testing")</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>3</v>
@@ -591,20 +594,20 @@
         <v>11</v>
       </c>
       <c r="B2" s="1">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C2" s="1">
         <v>8</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>6</v>
       </c>
       <c r="G2" s="6">
         <f>COUNTIF($D:$D,"Automated")+COUNTIF($D:$D,"Finished")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -650,7 +653,7 @@
       </c>
       <c r="G5" s="3">
         <f>SUM($B:$B)</f>
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -659,7 +662,7 @@
       </c>
       <c r="G6" s="8">
         <f>G5/G4</f>
-        <v>0.22222222222222221</v>
+        <v>0.44444444444444442</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/QA/Tests/FTP/CRUD/Create/AllSteps/_Test_Suite_Statistics.xlsx
+++ b/QA/Tests/FTP/CRUD/Create/AllSteps/_Test_Suite_Statistics.xlsx
@@ -53,9 +53,6 @@
     <t>Percentage Automated:</t>
   </si>
   <si>
-    <t>Testing</t>
-  </si>
-  <si>
     <t>NextAndBackButtonStates</t>
   </si>
   <si>
@@ -69,6 +66,9 @@
   </si>
   <si>
     <t>Automated</t>
+  </si>
+  <si>
+    <t>Finished</t>
   </si>
 </sst>
 </file>
@@ -542,7 +542,7 @@
   <dimension ref="A1:I175"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -579,7 +579,7 @@
       </c>
       <c r="G1" s="6">
         <f>COUNTIF($D:$D,"Ready to Write")+COUNTIF($D:$D,"Outdated")+COUNTIF($D:$D,"Testing")</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>3</v>
@@ -591,7 +591,7 @@
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B2" s="1">
         <v>8</v>
@@ -600,19 +600,19 @@
         <v>8</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>6</v>
       </c>
       <c r="G2" s="6">
         <f>COUNTIF($D:$D,"Automated")+COUNTIF($D:$D,"Finished")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B3" s="1">
         <v>0</v>
@@ -621,23 +621,23 @@
         <v>6</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F3" s="3"/>
       <c r="G3" s="6"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B4" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C4" s="1">
         <v>4</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>7</v>
@@ -653,7 +653,7 @@
       </c>
       <c r="G5" s="3">
         <f>SUM($B:$B)</f>
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -662,7 +662,7 @@
       </c>
       <c r="G6" s="8">
         <f>G5/G4</f>
-        <v>0.44444444444444442</v>
+        <v>0.66666666666666663</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/QA/Tests/FTP/CRUD/Create/AllSteps/_Test_Suite_Statistics.xlsx
+++ b/QA/Tests/FTP/CRUD/Create/AllSteps/_Test_Suite_Statistics.xlsx
@@ -542,7 +542,7 @@
   <dimension ref="A1:I175"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -594,10 +594,10 @@
         <v>10</v>
       </c>
       <c r="B2" s="1">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C2" s="1">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>14</v>
@@ -644,7 +644,7 @@
       </c>
       <c r="G4" s="3">
         <f>SUM($C:$C)</f>
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -653,7 +653,7 @@
       </c>
       <c r="G5" s="3">
         <f>SUM($B:$B)</f>
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -662,7 +662,7 @@
       </c>
       <c r="G6" s="8">
         <f>G5/G4</f>
-        <v>0.66666666666666663</v>
+        <v>0.5714285714285714</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
